--- a/Cluster Profiling.xlsx
+++ b/Cluster Profiling.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a810f01254052cc0/Documents/Eskwelabs/Eskwelabs - DS Cohort 10 Sprint 1 Materials/Sprint 1 Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a810f01254052cc0/Documents/Eskwelabs/Eskwelabs - DS Cohort 10 Sprint 1 Materials/DSF10-Sprint1-Grp2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="350" documentId="8_{CD86C4CD-20FF-4FDC-B898-B4FD09099DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1A2C6F9-0D03-4B74-9A15-8339EB7DD96D}"/>
+  <xr:revisionPtr revIDLastSave="378" documentId="8_{CD86C4CD-20FF-4FDC-B898-B4FD09099DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F65E9439-CED1-4FE9-ADBE-2C6EED7ED3D8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F4FABF35-B338-4B0B-935D-9CC3CE988D51}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="4" xr2:uid="{F4FABF35-B338-4B0B-935D-9CC3CE988D51}"/>
   </bookViews>
   <sheets>
     <sheet name="CLUSTER SET 1" sheetId="3" r:id="rId1"/>
     <sheet name="CLUSTER SET 2" sheetId="2" r:id="rId2"/>
     <sheet name="CLUSTER SET 3" sheetId="6" r:id="rId3"/>
     <sheet name="CLUSTER SET 4" sheetId="8" r:id="rId4"/>
-    <sheet name="Other trials" sheetId="1" r:id="rId5"/>
+    <sheet name="CLUSTER SET 5" sheetId="9" r:id="rId5"/>
+    <sheet name="Other trials" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CLUSTER SET 1'!$G$23:$I$23</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="66">
   <si>
     <t>yes</t>
   </si>
@@ -218,6 +219,30 @@
   </si>
   <si>
     <t>4. Internet use: to identify if there's opportunity to introduce them to other digital finance options</t>
+  </si>
+  <si>
+    <t>inc_q</t>
+  </si>
+  <si>
+    <t>mobileowner</t>
+  </si>
+  <si>
+    <t>fourth 20%</t>
+  </si>
+  <si>
+    <t>in workforce</t>
+  </si>
+  <si>
+    <t>middle 20%</t>
+  </si>
+  <si>
+    <t>richest 20%</t>
+  </si>
+  <si>
+    <t>poorest 20%</t>
+  </si>
+  <si>
+    <t>out of workforce</t>
   </si>
 </sst>
 </file>
@@ -840,7 +865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D1C31F-C0AF-4C85-BD6D-2D939519D5CB}">
   <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2750,6 +2775,291 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A190F2BC-6784-4F06-B4A3-AF4BBA28DA78}">
+  <dimension ref="B6:G19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.77734375" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291DC6C5-F04D-47E9-A5C5-7BE8B0F137D5}">
   <dimension ref="A1:H34"/>
   <sheetViews>
